--- a/Data/MEF/CHN States GDP Proxy.xlsx
+++ b/Data/MEF/CHN States GDP Proxy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sileh\Desktop\GitHub Workbench\climada_r\Data\MEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sileh\Desktop\GitHub Workbench\Climada\climada_r\Data\MEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA2CB6-921D-4EA4-9E32-DC0E1882B119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769EF7D-2162-4EE2-8F31-B5786EA06D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,21 +526,25 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,7 +569,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -581,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -897,17 +904,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:M51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -926,7 +937,7 @@
       <c r="E1">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="9">
         <v>2018</v>
       </c>
       <c r="G1">
@@ -997,64 +1008,64 @@
       <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>35371.279999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>33105.97</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>28014.94</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>25669.13</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>23014.59</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>21330.83</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>19800.810000000001</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>17879.400000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>16251.93</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>14113.58</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>12153.03</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>11115</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <v>9846.81</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>8117.78</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>6969.52</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="6">
         <v>6033.21</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="6">
         <v>5007.21</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="6">
         <v>4315</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="6">
         <v>3707.96</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="6">
         <v>3161.66</v>
       </c>
     </row>
@@ -1071,64 +1082,64 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>14104.28</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>13362.92</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>18549.189999999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>17885.39</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>16538.189999999999</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>15726.93</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>14442.01</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>12893.88</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>11307.28</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>9224.4599999999991</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>7521.85</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>6719.01</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <v>5252.76</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="6">
         <v>4462.74</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>3905.64</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="6">
         <v>3110.97</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="6">
         <v>2578.0300000000002</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="6">
         <v>2150.7600000000002</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="6">
         <v>1919.09</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="6">
         <v>1701.88</v>
       </c>
     </row>
@@ -1145,64 +1156,64 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>35104.519999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>32494.61</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>34016.32</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>32070.45</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>29806.11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>29421.15</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>28442.95</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>26575.01</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>24515.759999999998</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>20394.259999999998</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>17235.48</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>16011.97</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>13607.32</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>11467.6</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="6">
         <v>10012.11</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="6">
         <v>8477.6299999999992</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="6">
         <v>6921.29</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="6">
         <v>6018.28</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>5516.76</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="6">
         <v>5043.96</v>
       </c>
     </row>
@@ -1219,64 +1230,64 @@
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>17026.68</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>15958.13</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>15528.42</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>13050.41</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>12766.49</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>12761.49</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>12665.25</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>12112.83</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>11237.55</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>9200.86</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>7358.31</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>7315.4</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>6024.45</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>4878.6099999999997</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>4230.53</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <v>3571.37</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>2855.23</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="6">
         <v>2324.8000000000002</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <v>2029.53</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="6">
         <v>1845.72</v>
       </c>
     </row>
@@ -1293,64 +1304,64 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>17212.53</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>16140.76</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>16096.21</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>18128.099999999999</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>17831.509999999998</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>17770.189999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>16916.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>15880.58</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>14359.88</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>11672</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>9740.25</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>8496.2000000000007</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>6423.18</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>4944.25</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <v>3905.03</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <v>3041.07</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="6">
         <v>2388.38</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="6">
         <v>1940.94</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="6">
         <v>1713.81</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="6">
         <v>1539.12</v>
       </c>
     </row>
@@ -1367,64 +1378,64 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>24909.45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>23510.54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>23409.24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>22246.9</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>28669.02</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>28626.58</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>27213.22</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>24846.43</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>22226.7</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>18457.27</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>15212.49</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>13668.58</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>11164.3</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>9304.52</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>8047.26</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <v>6672</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="6">
         <v>6002.54</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="6">
         <v>5458.22</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="6">
         <v>5033.08</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="6">
         <v>4669.0600000000004</v>
       </c>
     </row>
@@ -1441,64 +1452,64 @@
       <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>11726.82</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>11253.81</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>14944.53</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>14776.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>14063.13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>13803.14</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>13046.4</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>11939.24</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>10568.83</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>8667.58</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>7278.75</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>6426.1</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>5284.69</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <v>4275.12</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="6">
         <v>3620.27</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="6">
         <v>3122.01</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <v>2662.08</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="6">
         <v>2348.54</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="6">
         <v>2120.35</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="6">
         <v>1951.51</v>
       </c>
     </row>
@@ -1515,64 +1526,64 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>13612.68</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>12846.48</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>15902.68</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>15386.09</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>15083.67</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>15039.38</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>14454.91</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>13691.58</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>12582</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>10368.6</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>8587</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>8314.3700000000008</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>7104</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <v>6211.8</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="6">
         <v>5513.7</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <v>4750.6000000000004</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="6">
         <v>4057.4</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="6">
         <v>3637.2</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>3390.1</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="6">
         <v>3151.4</v>
       </c>
     </row>
@@ -1589,64 +1600,64 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>38155.32</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>36011.82</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>30632.99</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>28178.65</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>25123.45</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>23567.7</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>21818.15</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>20181.72</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>19195.689999999999</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>17165.98</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>15046.45</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>14069.86</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>12494.01</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>10572.24</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="6">
         <v>9247.66</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <v>8072.83</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="6">
         <v>6694.23</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="6">
         <v>5741.03</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="6">
         <v>5210.12</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="6">
         <v>4771.17</v>
       </c>
     </row>
@@ -1663,64 +1674,64 @@
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>99631.52</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>93207.55</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>85869.759999999995</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>77388.28</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>70116.38</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>65088.32</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>59753.37</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>54058.22</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>49110.27</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <v>41425.480000000003</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>34457.300000000003</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>30981.98</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="6">
         <v>26018.48</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="6">
         <v>21742.05</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="6">
         <v>18598.689999999999</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="6">
         <v>15003.6</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="6">
         <v>12442.87</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="6">
         <v>10606.85</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="6">
         <v>9456.84</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="6">
         <v>8553.69</v>
       </c>
     </row>
@@ -1737,64 +1748,64 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>62351.74</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>58002.84</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>51768.26</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>47251.360000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>42886.49</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>40173.03</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>37756.589999999997</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>34665.33</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>32318.85</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>27722.31</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>22990.35</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>21462.69</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <v>18753.73</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <v>15718.47</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="6">
         <v>13417.68</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="6">
         <v>11648.7</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="6">
         <v>9705.02</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="6">
         <v>8003.67</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="6">
         <v>6898.34</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="6">
         <v>6141.03</v>
       </c>
     </row>
@@ -1811,64 +1822,64 @@
       <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>37113.980000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>34010.910000000003</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>27018</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>24407.62</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>22005.63</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>20848.75</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>19229.34</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>17212.05</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>15300.65</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <v>12359.33</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>10062.82</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>8851.66</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <v>7360.92</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <v>6112.5</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="6">
         <v>5350.17</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="6">
         <v>4759.3</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="6">
         <v>3923.11</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="6">
         <v>3519.72</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="6">
         <v>3246.71</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="6">
         <v>2902.09</v>
       </c>
     </row>
@@ -1885,64 +1896,64 @@
       <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>42395</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>38687.769999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>32182.09</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>28810.58</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>25979.82</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>24055.759999999998</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>21868.49</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>19701.78</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>17560.18</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>14737.12</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>12236.53</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
         <v>10823.01</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="6">
         <v>9248.5300000000007</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="6">
         <v>7583.85</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="6">
         <v>6554.69</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="6">
         <v>5763.35</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="6">
         <v>4983.67</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="6">
         <v>4467.55</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="6">
         <v>4072.85</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="6">
         <v>3764.54</v>
       </c>
     </row>
@@ -1959,64 +1970,64 @@
       <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>24757.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>22716.51</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>20006.310000000001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>18499</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>16723.78</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>15714.63</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>14410.19</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>12948.88</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>11702.82</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>9451.26</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>7655.18</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>6971.05</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>5800.25</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <v>4820.53</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="6">
         <v>4056.76</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="6">
         <v>3456.7</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="6">
         <v>2807.41</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="6">
         <v>2450.48</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="6">
         <v>2175.6799999999998</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="6">
         <v>2003.07</v>
       </c>
     </row>
@@ -2033,64 +2044,64 @@
       <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>71067.53</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>66648.87</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>72634.149999999994</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>68024.490000000005</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>63002.33</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>59426.59</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>55230.32</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>50013.24</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>45361.85</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>39169.919999999998</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>33896.65</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>30933.279999999999</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>25776.91</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>21900.19</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>18366.87</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="6">
         <v>15021.84</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="6">
         <v>12078.15</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="6">
         <v>10275.5</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="6">
         <v>9195.0400000000009</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="6">
         <v>8337.4699999999993</v>
       </c>
     </row>
@@ -2107,64 +2118,64 @@
       <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>54259.199999999997</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>49935.9</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>44552.83</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>40471.79</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>37002.160000000003</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>34938.239999999998</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>32191.3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>29599.31</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>26931.03</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>23092.36</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>19480.46</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>18018.53</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>15012.46</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <v>12362.79</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="6">
         <v>10587.42</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="6">
         <v>8553.7900000000009</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="6">
         <v>6867.7</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="6">
         <v>6035.48</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="6">
         <v>5533.01</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="6">
         <v>5052.99</v>
       </c>
     </row>
@@ -2181,64 +2192,64 @@
       <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>45828.31</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>42021.95</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>35478.089999999997</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>32665.38</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>29550.19</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>27379.22</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
         <v>24791.83</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>22250.45</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>19632.259999999998</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="6">
         <v>15967.61</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>12961.1</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>11328.92</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="6">
         <v>9333.4</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="6">
         <v>7617.47</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="6">
         <v>6590.19</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="6">
         <v>5633.24</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="6">
         <v>4757.45</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="6">
         <v>4212.82</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="6">
         <v>3880.53</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="6">
         <v>3545.39</v>
       </c>
     </row>
@@ -2255,64 +2266,64 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>39752.120000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>36329.68</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>33902.959999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>31551.37</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>28902.21</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>27037.32</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="6">
         <v>24621.67</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>22154.23</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>19669.560000000001</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="6">
         <v>16037.96</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>13059.69</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>11555</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="6">
         <v>9439.6</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="6">
         <v>7688.67</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="6">
         <v>6596.1</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="6">
         <v>5641.94</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="6">
         <v>4659.99</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="6">
         <v>4151.54</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="6">
         <v>3831.9</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="6">
         <v>3551.49</v>
       </c>
     </row>
@@ -2329,64 +2340,64 @@
       <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>107671.07</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>99945.22</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <v>89705.23</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>80854.91</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>72812.55</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>67809.850000000006</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="6">
         <v>62474.79</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>57067.92</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <v>53210.28</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <v>46013.06</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>39482.559999999998</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="6">
         <v>36796.71</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="6">
         <v>31777.01</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="6">
         <v>26587.759999999998</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="6">
         <v>22557.37</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="6">
         <v>18864.62</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="6">
         <v>15844.64</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="6">
         <v>13502.42</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="6">
         <v>12039.25</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="6">
         <v>10741.25</v>
       </c>
     </row>
@@ -2403,64 +2414,64 @@
       <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>21237.14</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>19627.810000000001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>18523.259999999998</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>18317.64</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>16803.12</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>15672.89</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>14449.9</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>13035.1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>11720.87</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>9569.85</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>7759.16</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>7021</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="6">
         <v>5823.41</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="6">
         <v>4746.16</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="6">
         <v>3984.1</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="6">
         <v>3433.5</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="6">
         <v>2821.11</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="6">
         <v>2523.73</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="6">
         <v>2279.34</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="6">
         <v>2080.04</v>
       </c>
     </row>
@@ -2477,64 +2488,64 @@
       <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>5308.93</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>4910.6899999999996</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>4462.54</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>4053.2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>3702.76</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>3500.72</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>3177.56</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>2855.54</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>2522.66</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="6">
         <v>2064.5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>1654.21</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="6">
         <v>1503.06</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="6">
         <v>1254.17</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="6">
         <v>1065.67</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="6">
         <v>918.75</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="6">
         <v>819.66</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="6">
         <v>713.96</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="6">
         <v>642.73</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="6">
         <v>579.16999999999996</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="6">
         <v>526.82000000000005</v>
       </c>
     </row>
@@ -2551,64 +2562,64 @@
       <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>23605.77</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>21588.799999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>19424.73</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>17740.59</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>15717.27</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>14262.6</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>12783.26</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>11409.6</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="6">
         <v>10011.370000000001</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="6">
         <v>7925.58</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>6530.01</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>5793.66</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="6">
         <v>4676.13</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="6">
         <v>3907.23</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="6">
         <v>3467.72</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="6">
         <v>3034.58</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="6">
         <v>2555.7199999999998</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="6">
         <v>2232.86</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="6">
         <v>1976.86</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="6">
         <v>1791</v>
       </c>
     </row>
@@ -2625,64 +2636,64 @@
       <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>46615.82</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>42902.1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <v>36980.22</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>32934.54</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>30053.1</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>28536.66</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <v>26392.07</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>23872.799999999999</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>21026.68</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <v>17185.48</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="6">
         <v>14151.28</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="6">
         <v>12601.23</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="6">
         <v>10562.39</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="6">
         <v>8690.24</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="6">
         <v>7385.1</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="6">
         <v>6379.63</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="6">
         <v>5333.09</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="6">
         <v>4725.01</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="6">
         <v>4293.49</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="6">
         <v>3928.2</v>
       </c>
     </row>
@@ -2699,64 +2710,64 @@
       <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>16769.34</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>15353.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <v>13540.83</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>11776.73</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>10502.56</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>9266.39</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <v>8086.86</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>6852.2</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="6">
         <v>5701.84</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="6">
         <v>4602.16</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <v>3912.68</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="6">
         <v>3561.56</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="6">
         <v>2884.11</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="6">
         <v>2338.98</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="6">
         <v>2005.42</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="6">
         <v>1677.8</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="6">
         <v>1426.34</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="6">
         <v>1243.43</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="6">
         <v>1133.27</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="6">
         <v>1029.92</v>
       </c>
     </row>
@@ -2773,64 +2784,64 @@
       <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>23223.75</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>20880.63</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>16376.34</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>14788.42</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>13619.17</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>12814.59</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>11832.31</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>10309.469999999999</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>8893.1200000000008</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="6">
         <v>7224.18</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>6169.75</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="6">
         <v>5692.12</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="6">
         <v>4772.5200000000004</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="6">
         <v>3988.14</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="6">
         <v>3462.73</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="6">
         <v>3081.91</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="6">
         <v>2556.02</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="6">
         <v>2312.8200000000002</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="6">
         <v>2138.31</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="6">
         <v>2011.19</v>
       </c>
     </row>
@@ -2847,64 +2858,64 @@
       <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>1697.82</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>1548.39</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <v>1310.92</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>1151.4100000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>1026.3900000000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>920.83</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="6">
         <v>815.67</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>701.03</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>605.83000000000004</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="6">
         <v>507.46</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>441.36</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="6">
         <v>394.85</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="6">
         <v>341.43</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="6">
         <v>290.76</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="6">
         <v>248.8</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="6">
         <v>220.34</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="6">
         <v>185.09</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="6">
         <v>162.04</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="6">
         <v>139.16</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="6">
         <v>117.8</v>
       </c>
     </row>
@@ -2921,64 +2932,64 @@
       <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>25793.17</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>23941.88</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <v>21898.81</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>19399.59</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>18021.86</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>17689.939999999999</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>16205.45</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>14453.68</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>12512.3</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="6">
         <v>10123.48</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>8169.8</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="6">
         <v>7314.58</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="6">
         <v>5757.29</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="6">
         <v>4743.6099999999997</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="6">
         <v>3933.72</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="6">
         <v>3175.58</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="6">
         <v>2587.7199999999998</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="6">
         <v>2253.39</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="6">
         <v>2010.62</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="6">
         <v>1804</v>
       </c>
     </row>
@@ -2995,64 +3006,64 @@
       <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>8718.2999999999993</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>8104.07</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>7459.9</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>7200.37</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>6790.32</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>6836.82</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>6330.69</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>5650.2</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>5020.37</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="6">
         <v>4120.75</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>3387.56</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="6">
         <v>3166.82</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="6">
         <v>2703.98</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="6">
         <v>2277.35</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="6">
         <v>1933.98</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="6">
         <v>1688.49</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="6">
         <v>1399.83</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="6">
         <v>1232.03</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="6">
         <v>1125.3699999999999</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="6">
         <v>1052.8800000000001</v>
       </c>
     </row>
@@ -3069,64 +3080,64 @@
       <c r="D30" t="s">
         <v>85</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>2965.95</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>2748</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>2624.83</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>2572.4899999999998</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>2417.0500000000002</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>2303.3200000000002</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <v>2122.06</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>1893.54</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="6">
         <v>1670.44</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="6">
         <v>1350.43</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>1081.27</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="6">
         <v>1018.62</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="6">
         <v>797.35</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="6">
         <v>648.5</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="6">
         <v>543.32000000000005</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="6">
         <v>466.1</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="6">
         <v>390.2</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="6">
         <v>340.65</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="6">
         <v>300.13</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="6">
         <v>263.68</v>
       </c>
     </row>
@@ -3143,64 +3154,64 @@
       <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>3748.48</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>3510.21</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <v>3443.56</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>3168.59</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>2911.77</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>2752.1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>2577.5700000000002</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>2341.29</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>2102.21</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="6">
         <v>1689.65</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>1353.31</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="6">
         <v>1203.92</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="6">
         <v>919.11</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="6">
         <v>725.9</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="6">
         <v>612.61</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="6">
         <v>537.11</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="6">
         <v>445.36</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="6">
         <v>377.16</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="6">
         <v>337.44</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="6">
         <v>295.02</v>
       </c>
     </row>
@@ -3217,66 +3228,78 @@
       <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>13597.11</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>12809.39</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>10881.96</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>9649.7000000000007</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>9324.7999999999993</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>9273.4599999999991</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>8443.84</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>7505.31</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="6">
         <v>6610.05</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="6">
         <v>5437.47</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="6">
         <v>4277.05</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="6">
         <v>4183.21</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="6">
         <v>3523.16</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="6">
         <v>3045.26</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="6">
         <v>2604.19</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="6">
         <v>2209.09</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="6">
         <v>1886.35</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="6">
         <v>1612.65</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="6">
         <v>1491.6</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="6">
         <v>1363.56</v>
       </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F37"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
